--- a/output/mto.xlsx
+++ b/output/mto.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50,00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50,00</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16,00</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2472,12 +2472,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>80,00</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">

--- a/output/mto.xlsx
+++ b/output/mto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,32 +516,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -551,35 +551,35 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>65,19</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>521,52</t>
+          <t>0,48</t>
         </is>
       </c>
     </row>
@@ -589,32 +589,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -624,35 +624,35 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SWxTHD</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>192,96</t>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -677,17 +677,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -697,21 +697,21 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SWxTHD</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -735,12 +735,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -750,32 +750,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>160</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -793,12 +793,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>46,06</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>46,06</t>
+          <t>0,58</t>
         </is>
       </c>
     </row>
@@ -808,12 +808,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -823,41 +823,41 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PExTE</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -866,12 +866,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -896,41 +896,41 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -939,12 +939,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -969,17 +969,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -989,21 +989,21 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PExPE</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1012,12 +1012,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-4"-SCI-7-7-005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1062,35 +1062,35 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>50,00</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>50,00</t>
+          <t>103,28</t>
         </is>
       </c>
     </row>
@@ -1100,32 +1100,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-4"-SCI-7-7-005</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1140,16 +1140,16 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1158,12 +1158,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>37,42</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>112,26</t>
+          <t>7,8</t>
         </is>
       </c>
     </row>
@@ -1173,12 +1173,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-4"-SCI-7-7-005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>85,32</t>
+          <t>7,11</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-4"-SCI-7-7-005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1304,12 +1304,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0,905</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2,715</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -1319,37 +1319,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-4"-SCI-7-7-005</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>3,208</t>
         </is>
       </c>
     </row>
@@ -1392,12 +1392,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4"-CRU-110-HAM-106D-A1A2-N</t>
+          <t>CS1SC2-4"-SCI-7-7-007</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1412,12 +1412,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>51,64</t>
         </is>
       </c>
     </row>
@@ -1465,27 +1465,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4"-CRU-110-HAM-106D-A1A2-N</t>
+          <t>CS1SC2-4"-SCI-7-7-007</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1514,21 +1514,21 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>932,64</t>
+          <t>7,8</t>
         </is>
       </c>
     </row>
@@ -1538,12 +1538,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4"-CRU-110-HAM-106D-A1A2-N</t>
+          <t>CS1SC2-4"-SCI-7-7-007</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1553,27 +1553,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1596,12 +1596,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>16,00</t>
         </is>
       </c>
     </row>
@@ -1611,27 +1611,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4"-CRU-110-HAM-106D-A1A2-N</t>
+          <t>CS1SC2-4"-SCI-7-7-007</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1646,21 +1646,21 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1669,12 +1669,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>7,11</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4"-CRU-110-HAM-106D-A1A2-N</t>
+          <t>CS1SC2-4"-SCI-7-7-007</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1714,22 +1714,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1742,12 +1742,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4"-CRU-110-HAM-106D-A1A2-N</t>
+          <t>CS1SC2-4"-SCI-7-7-007</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1767,27 +1767,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1797,16 +1797,16 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1815,12 +1815,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,88</t>
         </is>
       </c>
     </row>
@@ -1830,32 +1830,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4"-CRU-110-HAM-106D-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1865,35 +1865,35 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>113,04</t>
         </is>
       </c>
     </row>
@@ -1903,32 +1903,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4"-CRU-110-HAM-106D-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1943,16 +1943,16 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1961,12 +1961,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>56,88</t>
+          <t>10,2</t>
         </is>
       </c>
     </row>
@@ -1976,56 +1976,56 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4"-CRU-110-HAM-106D-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH XXS L= 100 mm</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2034,12 +2034,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2098,21 +2098,21 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>56,45</t>
+          <t>16,48</t>
         </is>
       </c>
     </row>
@@ -2122,70 +2122,70 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TOL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>112,56</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -2195,27 +2195,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2235,30 +2235,30 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>113,04</t>
+          <t>65,46</t>
         </is>
       </c>
     </row>
@@ -2268,32 +2268,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2303,21 +2303,21 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -2341,47 +2341,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2399,12 +2399,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>16,04</t>
         </is>
       </c>
     </row>
@@ -2414,47 +2414,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2463,21 +2463,21 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>80,00</t>
+          <t>8,04</t>
         </is>
       </c>
     </row>
@@ -2487,27 +2487,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2517,40 +2517,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>84,78</t>
         </is>
       </c>
     </row>
@@ -2560,12 +2560,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2575,27 +2575,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>30x40</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2618,12 +2618,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>10,2</t>
         </is>
       </c>
     </row>
@@ -2633,32 +2633,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2668,21 +2668,21 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2691,12 +2691,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>16,48</t>
         </is>
       </c>
     </row>
@@ -2706,56 +2706,56 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2764,12 +2764,12 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>7,24</t>
         </is>
       </c>
     </row>
@@ -2779,12 +2779,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2852,12 +2852,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2910,12 +2910,12 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>49,7</t>
+          <t>43,64</t>
         </is>
       </c>
     </row>
@@ -2925,32 +2925,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2960,12 +2960,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>63,99</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -2998,56 +2998,56 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3056,12 +3056,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>21,82</t>
+          <t>12,832</t>
         </is>
       </c>
     </row>
@@ -3071,32 +3071,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3106,35 +3106,35 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1,628</t>
+          <t>3362,94</t>
         </is>
       </c>
     </row>
@@ -3144,32 +3144,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3179,21 +3179,21 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3202,12 +3202,12 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>15,3</t>
         </is>
       </c>
     </row>
@@ -3217,70 +3217,2114 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6"-CRU-110-CPE6-CLHAM64-101-A1A2-N</t>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>16</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>10,2</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>163,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>RTE</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>40 x 30</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>16,48</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>32,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>8</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>10,91</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>87,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>GS</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>GAS</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>6,00</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>2</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>0,302</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0,604</t>
+      <c r="L43" t="n">
+        <v>8</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>115mm</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>64</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0,401</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>25,664</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>28,26</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>28,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>CRE</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>40 x 30</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>16,48</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>16,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>6</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>10,91</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>65,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>6</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>115mm</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>48</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>0,401</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>19,248</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>13</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>33,32</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>433,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>16,57</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>16,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ERE</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>20 x 40</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>RTE</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>20 x 30</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>28,00</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>28,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>29,00</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>29,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>17,3</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>69,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>10,91</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>10,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>4</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>115mm</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>8</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>0,401</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>3,208</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>120mm</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>24</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>9,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>8</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>0,235</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TIE-IN 013</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TIE-IN 013</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TIE-IN 013</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>8</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>0,235</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>1,88</t>
         </is>
       </c>
     </row>

--- a/output/mto.xlsx
+++ b/output/mto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>TOTAL_WEIGHT</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>NOTE</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -516,32 +521,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>CS2SA1-1/2"-DRE-1-5-006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -551,35 +556,40 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>45,16</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -589,32 +599,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>CS2SA1-1/2"-DRE-1-5-006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -624,17 +634,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>SWxTHD</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -642,17 +652,22 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -662,12 +677,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>CS2SA1-1/2"-DRE-1-5-006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -677,17 +692,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -702,7 +717,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>SWxTHD</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -711,7 +726,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -720,12 +735,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -735,12 +755,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>CS2SA1-1/2"-DRE-1-5-006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -750,32 +770,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
+          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -784,7 +804,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -793,12 +813,17 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -808,12 +833,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>CS2SA1-1/2"-DRE-1-5-006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -823,37 +848,37 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>PExTE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -866,12 +891,17 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -881,12 +911,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>CS2SA1-1/2"-DRE-1-5-006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -896,37 +926,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -939,12 +969,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -954,12 +989,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>CS2SA1-1/2"-DRE-1-5-006</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -969,32 +1004,32 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>80x80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>PExPE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1003,7 +1038,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1012,12 +1047,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>13,5</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1067,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-005</t>
+          <t>CS2SA1-1/2"-DRE-1-5-006</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1062,35 +1102,40 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>103,28</t>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -1100,32 +1145,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-005</t>
+          <t>CS2SA1-1/2"-DRE-1-5-006</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1135,21 +1180,21 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1158,12 +1203,17 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1173,32 +1223,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-005</t>
+          <t>CS2SA1-1/2"-DRE-1-5-007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1208,17 +1258,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1226,17 +1276,22 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1246,32 +1301,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-005</t>
+          <t>CS2SA1-1/2"-DRE-1-5-007</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1286,12 +1341,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1304,12 +1359,17 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1319,47 +1379,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-005</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1368,21 +1428,26 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>3,208</t>
+          <t>48,24</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1392,27 +1457,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-007</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1427,12 +1492,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1441,21 +1506,26 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>51,64</t>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1535,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-007</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1485,12 +1555,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1500,7 +1570,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1514,7 +1584,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1523,12 +1593,17 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1538,12 +1613,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-007</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1553,27 +1628,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1587,7 +1662,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1596,12 +1671,17 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>15,6</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1611,27 +1691,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-007</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1641,22 +1721,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1669,12 +1749,17 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1769,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-007</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1714,22 +1799,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1742,12 +1827,17 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1847,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-007</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1767,22 +1857,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1792,12 +1882,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1806,7 +1896,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1815,12 +1905,17 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1830,70 +1925,75 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>113,04</t>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1903,12 +2003,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1918,17 +2018,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1961,12 +2061,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>8,44</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1976,56 +2081,56 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH XXS L= 100 mm</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>XXS</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2034,12 +2139,17 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2159,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2089,12 +2199,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -2107,12 +2217,17 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2122,56 +2237,56 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2180,12 +2295,17 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>14,91</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2195,12 +2315,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2215,12 +2335,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2235,7 +2355,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2244,7 +2364,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2253,12 +2373,17 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>65,46</t>
+          <t>28,44</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2268,12 +2393,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2288,12 +2413,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2308,7 +2433,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2317,7 +2442,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2326,12 +2451,17 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,035</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2341,37 +2471,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2381,16 +2511,16 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2399,12 +2529,17 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>0,148</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>16,04</t>
+          <t>0,592</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2414,32 +2549,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2449,35 +2584,40 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2487,47 +2627,47 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>70mm</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2536,21 +2676,26 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>84,78</t>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2560,47 +2705,47 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2609,7 +2754,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2618,12 +2763,17 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2783,47 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2682,7 +2832,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2691,12 +2841,17 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>7,52</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2706,56 +2861,56 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2764,12 +2919,17 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>45,00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>45,00</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2779,32 +2939,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2819,7 +2979,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2828,7 +2988,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2837,12 +2997,17 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>23,6</t>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2852,32 +3017,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS2SA1-4"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>DBB</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2887,12 +3052,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2901,7 +3066,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2910,12 +3075,17 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>43,64</t>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2925,32 +3095,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS2SA1-4"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2960,35 +3130,40 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>160,8</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2998,47 +3173,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS2SA1-4"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3047,7 +3222,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3056,12 +3231,17 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>12,832</t>
+          <t>5,85</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3071,32 +3251,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS2SA1-4"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3111,7 +3291,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3120,21 +3300,26 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>3362,94</t>
+          <t>15,6</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3329,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS2SA1-4"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3159,27 +3344,27 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3193,7 +3378,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3202,12 +3387,17 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3217,32 +3407,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS2SA1-4"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3257,16 +3447,16 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3275,12 +3465,17 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>163,2</t>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3290,56 +3485,56 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS2SA1-4"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3348,12 +3543,17 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,705</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3363,47 +3563,47 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS2SA1-4"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3412,7 +3612,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3421,12 +3621,17 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>32,96</t>
+          <t>5,64</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3436,32 +3641,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS2SA1-4"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3471,12 +3676,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3485,7 +3690,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3494,12 +3699,17 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>45,00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>87,28</t>
+          <t>45,00</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -3509,32 +3719,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS2SA1-4"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3549,7 +3759,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3558,7 +3768,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3567,12 +3777,17 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3582,56 +3797,56 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS2SA1-4"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3640,12 +3855,17 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>25,664</t>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3655,32 +3875,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>CS2SA1-4"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3690,17 +3910,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3708,17 +3928,22 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>0,113</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>0,113</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3728,47 +3953,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>CS2SA1-4"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>95mm</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3777,7 +4002,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3786,12 +4011,17 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,229</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>1,832</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3801,27 +4031,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3841,7 +4071,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3850,21 +4080,26 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>169,56</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3874,32 +4109,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3909,35 +4144,40 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>65,46</t>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3947,27 +4187,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3982,21 +4222,21 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4005,12 +4245,17 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4020,47 +4265,47 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4069,7 +4314,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4078,12 +4323,17 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19,248</t>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4093,32 +4343,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4128,12 +4378,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4142,21 +4392,26 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>33,32</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>433,16</t>
+          <t>61,2</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4166,12 +4421,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4181,27 +4436,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4224,12 +4479,17 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4239,12 +4499,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4254,37 +4514,37 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>20 x 40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -4297,12 +4557,17 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4312,12 +4577,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4327,27 +4592,27 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 30</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>20 x 30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4361,7 +4626,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -4370,12 +4635,17 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>19,3</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>38,6</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4385,32 +4655,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4420,17 +4690,17 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -4443,12 +4713,17 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4458,12 +4733,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4478,12 +4753,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4493,12 +4768,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4507,7 +4782,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -4516,12 +4791,17 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>69,2</t>
+          <t>14,91</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4531,12 +4811,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4551,12 +4831,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4566,12 +4846,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4580,7 +4860,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -4589,12 +4869,17 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>32,73</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4604,32 +4889,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4639,12 +4924,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4662,12 +4947,17 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>0,035</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4967,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4697,12 +4987,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4717,7 +5007,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4726,7 +5016,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -4735,12 +5025,17 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,148</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,444</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4750,12 +5045,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4770,7 +5065,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4790,7 +5085,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4799,7 +5094,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -4808,12 +5103,17 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,302</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>1,208</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4823,37 +5123,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>70mm</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4863,12 +5163,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -4881,12 +5181,17 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4896,12 +5201,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4921,12 +5226,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4945,7 +5250,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -4954,12 +5259,17 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>3,208</t>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4969,12 +5279,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4999,7 +5309,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>120mm</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5018,7 +5328,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5027,12 +5337,17 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>12,832</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5042,37 +5357,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5082,16 +5397,16 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5100,12 +5415,17 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>77,00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>77,00</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>CSC</t>
         </is>
       </c>
     </row>
@@ -5115,32 +5435,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TIE-IN 013</t>
+          <t>CS2SA1-6"-SUM-1-5-001</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>DBB</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5150,12 +5470,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5173,12 +5493,17 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5188,32 +5513,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TIE-IN 013</t>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5223,17 +5548,17 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -5241,17 +5566,22 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>28,26</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5261,70 +5591,3039 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TIE-IN 013</t>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>10,2</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>10,2</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ERE</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>40x40</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ERE</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>40x40</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>3</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>3</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>10,91</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>32,73</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>3</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>0,105</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>3</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>0,302</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>0,906</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>BL</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>BOLT</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0,625</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>70mm</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>12</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>0,125</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>115mm</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>24</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>0,401</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>9,624</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>YST</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>92,00</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>92,00</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>77,00</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>77,00</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>CSC</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>28,26</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>28,26</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>10,2</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>10,2</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>ERE</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>40x40</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
         <is>
           <t>100mm</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>10,91</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>32,73</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>3</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>0,105</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>3</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>0,302</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>0,906</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>70mm</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>12</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>0,125</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>115mm</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>24</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>0,401</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>9,624</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>YST</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>92,00</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>92,00</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>77,00</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>77,00</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>CSC</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>CSC</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>12,17</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>12,17</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>0,263</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>0,263</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CS2SA1-6"-SUM-1-5-003</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>125mm</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
         <v>8</v>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>0,235</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>1,88</t>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/output/mto.xlsx
+++ b/output/mto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,12 +521,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS2SA1-1/2"-DRE-1-5-006</t>
+          <t>4"-TIE-IN-013</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -579,12 +579,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>45,16</t>
+          <t>64,55</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -599,32 +599,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS2SA1-1/2"-DRE-1-5-006</t>
+          <t>4"-TIE-IN-013</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -634,12 +634,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -648,21 +648,21 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -677,32 +677,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS2SA1-1/2"-DRE-1-5-006</t>
+          <t>4"-TIE-IN-013</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -712,21 +712,21 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -735,12 +735,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -755,32 +755,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS2SA1-1/2"-DRE-1-5-006</t>
+          <t>4"-TIE-IN-013</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CAP</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -790,17 +790,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -813,12 +813,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -833,37 +833,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS2SA1-1/2"-DRE-1-5-006</t>
+          <t>4"-TIE-IN-013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -873,16 +873,16 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS2SA1-1/2"-DRE-1-5-006</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -969,12 +969,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS2SA1-1/2"-DRE-1-5-006</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1024,21 +1024,21 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SWxTHD</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1047,12 +1047,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>13,5</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1067,32 +1067,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS2SA1-1/2"-DRE-1-5-006</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1107,12 +1107,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>SWxTHD</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1125,17 +1125,17 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1145,56 +1145,56 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CS2SA1-1/2"-DRE-1-5-006</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1203,12 +1203,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1223,47 +1223,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS2SA1-1/2"-DRE-1-5-007</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>160</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1276,17 +1276,17 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CS2SA1-1/2"-DRE-1-5-007</t>
+          <t>CS1SC2-3/4"-SCI-7-7-008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1316,37 +1316,37 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PExPE</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1379,12 +1379,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-4"-SCI-7-7-005</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>48,24</t>
+          <t>103,28</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1457,12 +1457,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-4"-SCI-7-7-005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1472,12 +1472,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1515,12 +1515,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1535,32 +1535,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-4"-SCI-7-7-005</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1570,17 +1570,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1613,27 +1613,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-4"-SCI-7-7-005</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1648,21 +1648,21 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1671,12 +1671,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>15,6</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1691,47 +1691,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-4"-SCI-7-7-005</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>3,208</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1769,27 +1769,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-4"-SCI-7-7-007</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1799,17 +1799,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1818,21 +1818,21 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>51,64</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-4"-SCI-7-7-007</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1862,32 +1862,32 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1905,12 +1905,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-4"-SCI-7-7-007</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1940,41 +1940,41 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1983,12 +1983,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2003,27 +2003,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-4"-SCI-7-7-007</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2038,17 +2038,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -2061,12 +2061,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2081,32 +2081,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-4"-SCI-7-7-007</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2139,12 +2139,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-4"-SCI-7-7-007</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2169,46 +2169,46 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2217,12 +2217,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2237,32 +2237,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2277,30 +2277,30 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>14,91</t>
+          <t>113,04</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2315,32 +2315,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2355,16 +2355,16 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2373,12 +2373,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>28,44</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2393,52 +2393,52 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH XXS L= 100 mm</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -2451,12 +2451,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2471,32 +2471,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2506,21 +2506,21 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2529,12 +2529,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0,592</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2549,37 +2549,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>TOL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2589,16 +2589,16 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2607,12 +2607,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2627,56 +2627,56 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>70mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>65,46</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2705,37 +2705,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2745,16 +2745,16 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2763,12 +2763,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2783,37 +2783,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2823,16 +2823,16 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>125</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>79,00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>79,00</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2876,17 +2876,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2939,12 +2939,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2979,12 +2979,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>125</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -2997,12 +2997,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-004</t>
+          <t>CS1SC2-6"-SCI-7-7-002</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3027,17 +3027,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DBB</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3057,16 +3057,16 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3075,12 +3075,12 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>16,04</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-005</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3153,12 +3153,12 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>160,8</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3173,32 +3173,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-005</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3226,17 +3226,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>84,78</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-005</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3309,12 +3309,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>15,6</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-005</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3344,27 +3344,27 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3387,12 +3387,12 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3407,56 +3407,56 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-005</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3465,12 +3465,12 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>14,22</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3485,32 +3485,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-005</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3543,12 +3543,12 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0,705</t>
+          <t>23,6</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3563,56 +3563,56 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-005</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3621,12 +3621,12 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>43,64</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3641,32 +3641,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-005</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3699,17 +3699,17 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3719,37 +3719,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-005</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3759,16 +3759,16 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3777,12 +3777,12 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>6,416</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3797,32 +3797,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-005</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CS3SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3832,21 +3832,21 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>125</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3855,12 +3855,12 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3875,32 +3875,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-005</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CS3SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>GLB</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3915,16 +3915,16 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FNPTxMNH</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>300 PSI CWP</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3933,12 +3933,12 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0,113</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0,113</t>
+          <t>28,32</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-SUM-1-5-005</t>
+          <t>CS1SC2-6"-SCI-7-7-003</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CS3SA1</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3978,12 +3978,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>95mm</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>0,229</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1,832</t>
+          <t>6,416</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4031,12 +4031,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4080,7 +4080,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>169,56</t>
+          <t>3362,94</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4109,32 +4109,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4144,12 +4144,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4158,21 +4158,21 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>15,3</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4187,12 +4187,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4202,12 +4202,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4245,12 +4245,12 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>173,4</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4265,12 +4265,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4280,27 +4280,27 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>61,2</t>
+          <t>32,96</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4421,27 +4421,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4451,26 +4451,26 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4479,12 +4479,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>87,28</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4499,27 +4499,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4539,16 +4539,16 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4557,12 +4557,12 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4577,47 +4577,47 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -4635,12 +4635,12 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>19,3</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>38,6</t>
+          <t>25,664</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4655,32 +4655,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-004</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4695,16 +4695,16 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>125</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -4713,12 +4713,12 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>272,00</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4733,32 +4733,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4773,30 +4773,30 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>14,91</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4811,27 +4811,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4841,26 +4841,26 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>32,73</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4889,32 +4889,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4924,17 +4924,17 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -4947,12 +4947,12 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4967,32 +4967,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -5002,12 +5002,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5025,12 +5025,12 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>65,46</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -5045,12 +5045,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5103,12 +5103,12 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>0,302</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>1,208</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -5123,12 +5123,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>70mm</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5181,12 +5181,12 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>19,248</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5201,37 +5201,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-6"-SCI-7-7-006</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5241,16 +5241,16 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>125</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5259,12 +5259,12 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>204,00</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5279,47 +5279,47 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5328,21 +5328,21 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>33,32</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>12,832</t>
+          <t>433,16</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5357,32 +5357,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5392,17 +5392,17 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -5415,17 +5415,17 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>77,00</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>77,00</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>CSC</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5435,52 +5435,52 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-001</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DBB</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20 x 40</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5513,47 +5513,47 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 30</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 x 30</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5566,17 +5566,17 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5591,32 +5591,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5644,17 +5644,17 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>29,00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>29,00</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5669,32 +5669,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5704,21 +5704,21 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -5727,12 +5727,12 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5747,27 +5747,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5787,12 +5787,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -5805,12 +5805,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5825,56 +5825,56 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -5883,12 +5883,12 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>69,2</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5903,52 +5903,52 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -5961,12 +5961,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5981,52 +5981,52 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -6039,12 +6039,12 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -6059,37 +6059,37 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6099,16 +6099,16 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6117,12 +6117,12 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -6137,32 +6137,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6177,12 +6177,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>125</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -6195,12 +6195,12 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>104,00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>104,00</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -6225,27 +6225,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6255,16 +6255,16 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6273,12 +6273,12 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6303,46 +6303,46 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6351,12 +6351,12 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>3,208</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
+          <t>CS1SC2-8"-SCI-7-7-001</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6381,46 +6381,46 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>120mm</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -6429,2199 +6429,15 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>32,73</t>
+          <t>9,84</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>3</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>0,035</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>0,105</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>3</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>0,302</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>0,906</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>70mm</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>12</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>0,125</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>115mm</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>24</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>0,401</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>9,624</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>YST</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>92,00</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>92,00</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>77,00</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>77,00</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>DBB</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>DBB</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>CSC</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-002</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>DBB</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>CSO</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>PP</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>28,26</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>28,26</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>90L</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>10,2</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>10,2</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>ERE</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>40x40</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>3,9</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>3,9</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>NIP</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>100mm</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>3</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>SOL</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>3</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>3</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>3</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>10,91</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>32,73</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>3</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>0,035</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>0,105</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>3</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>0,302</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>0,906</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>70mm</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>12</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>0,125</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>115mm</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>24</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>0,401</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>9,624</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>YST</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>92,00</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>92,00</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>77,00</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>77,00</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>CSC</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>DBB</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>DBB</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>CSC</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>DBB</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>CSO</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>CS3SA1</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>12,17</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>12,17</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>CS3SA1</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>0,263</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>0,263</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>CS2SA1-6"-SUM-1-5-003</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>CS3SA1</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>125mm</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>8</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>3,36</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/mto.xlsx
+++ b/output/mto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,32 +521,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4"-TIE-IN-013</t>
+          <t>ALIVIO DESCARGA BB-2601(R) DOWNSTREAM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -556,35 +556,35 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>64,55</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -599,12 +599,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4"-TIE-IN-013</t>
+          <t>ALIVIO DESCARGA BB-2601(R) DOWNSTREAM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -614,32 +614,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -657,12 +657,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>1,296</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4"-TIE-IN-013</t>
+          <t>ALIVIO DESCARGA BB-2601(R) DOWNSTREAM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -692,17 +692,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -735,12 +735,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -755,12 +755,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4"-TIE-IN-013</t>
+          <t>ALIVIO DESCARGA BB-2601(R) DOWNSTREAM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -813,12 +813,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -833,12 +833,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4"-TIE-IN-013</t>
+          <t>ALIVIO DESCARGA BB-2601(R) DOWNSTREAM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -858,12 +858,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>75mm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,032</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -911,32 +911,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>ALIVIO DESCARGA BB-2601(R) DOWNSTREAM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -951,16 +951,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -969,12 +969,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -989,27 +989,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>ALIVIO DESCARGA BB-2601(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>SWxTHD</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>ALIVIO DESCARGA BB-2601(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1087,12 +1087,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>SWxTHD</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>ALIVIO DESCARGA BB-2601(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1180,12 +1180,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1223,56 +1223,56 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>ALIVIO DESCARGA BB-2601(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1301,52 +1301,52 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CS1SC2-3/4"-SCI-7-7-008</t>
+          <t>ALIVIO DESCARGA BB-2601(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>80x80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>PExPE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1379,47 +1379,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-005</t>
+          <t>ALIVIO DESCARGA BB-2601(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>85mm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1428,21 +1428,21 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>0,216</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>103,28</t>
+          <t>0,864</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-005</t>
+          <t>ALIVIO DESCARGA BB-2601(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1492,21 +1492,21 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1515,12 +1515,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1535,32 +1535,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-005</t>
+          <t>ALIVIO DESCARGA BB-2602(R) DOWNSTREAM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1570,21 +1570,21 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1593,12 +1593,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1613,56 +1613,56 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-005</t>
+          <t>ALIVIO DESCARGA BB-2602(R) DOWNSTREAM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1671,12 +1671,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,296</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1691,37 +1691,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-005</t>
+          <t>ALIVIO DESCARGA BB-2602(R) DOWNSTREAM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1731,16 +1731,16 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>3,208</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1769,32 +1769,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-007</t>
+          <t>ALIVIO DESCARGA BB-2602(R) DOWNSTREAM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1804,35 +1804,35 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>51,64</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1847,47 +1847,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-007</t>
+          <t>ALIVIO DESCARGA BB-2602(R) DOWNSTREAM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>75mm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1905,12 +1905,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>1,032</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1925,52 +1925,52 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-007</t>
+          <t>ALIVIO DESCARGA BB-2602(R) DOWNSTREAM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1983,12 +1983,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2003,32 +2003,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-007</t>
+          <t>ALIVIO DESCARGA BB-2602(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2038,35 +2038,35 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2081,32 +2081,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-007</t>
+          <t>ALIVIO DESCARGA BB-2602(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2121,16 +2121,16 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2139,12 +2139,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2159,32 +2159,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CS1SC2-4"-SCI-7-7-007</t>
+          <t>ALIVIO DESCARGA BB-2602(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2217,12 +2217,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2237,32 +2237,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>ALIVIO DESCARGA BB-2602(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2272,35 +2272,35 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>113,04</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2315,32 +2315,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>ALIVIO DESCARGA BB-2602(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2350,17 +2350,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2393,47 +2393,47 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>ALIVIO DESCARGA BB-2602(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH XXS L= 100 mm</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>85mm</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>XXS</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2451,12 +2451,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,216</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,864</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2471,32 +2471,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>ALIVIO DESCARGA BB-2602(R) UPSTREAM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2506,17 +2506,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2529,12 +2529,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2549,70 +2549,70 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CABEZAL ALIVIOS BOMBAS (DESCARGAS)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>16,2</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2627,32 +2627,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CABEZAL ALIVIOS BOMBAS (DESCARGAS)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>ELBOW 45 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2662,21 +2662,21 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>65,46</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2705,32 +2705,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CABEZAL ALIVIOS BOMBAS (DESCARGAS)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2745,16 +2745,16 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2763,12 +2763,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2783,56 +2783,56 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CABEZAL ALIVIOS BOMBAS (DESCARGAS)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>79,00</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>79,00</t>
+          <t>1,296</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2861,32 +2861,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CABEZAL ALIVIOS BOMBAS (DESCARGAS)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2939,32 +2939,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CABEZAL ALIVIOS BOMBAS (DESCARGAS)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2974,17 +2974,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -2997,12 +2997,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3017,47 +3017,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-002</t>
+          <t>CABEZAL DRENAJES BOMBAS (DESCARGAS)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3066,21 +3066,21 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>16,04</t>
+          <t>16,2</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3095,32 +3095,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CABEZAL DRENAJES BOMBAS (DESCARGAS)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>ELBOW 45 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3130,17 +3130,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -3148,17 +3148,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3173,70 +3173,70 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CABEZAL DRENAJES BOMBAS (DESCARGAS)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>84,78</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CABEZAL DRENAJES BOMBAS (DESCARGAS)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3266,17 +3266,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3286,17 +3286,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -3309,12 +3309,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3329,32 +3329,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 80</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3364,12 +3364,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3378,21 +3378,21 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>15,27</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>45,81</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3407,47 +3407,47 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 80</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3456,21 +3456,21 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>22,32</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>66,96</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3485,32 +3485,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3520,35 +3520,35 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>41,76</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>23,6</t>
+          <t>292,32</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3563,32 +3563,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3598,35 +3598,35 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>43,64</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3641,37 +3641,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3681,16 +3681,16 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3699,12 +3699,12 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3719,39 +3719,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>115mm</t>
-        </is>
-      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>-</t>
@@ -3759,16 +3759,16 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3777,12 +3777,12 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>6,416</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3797,37 +3797,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3837,12 +3837,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3875,56 +3875,56 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GLB</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x80</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>FNPTxMNH</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>300 PSI CWP</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3933,12 +3933,12 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>28,32</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3953,47 +3953,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-003</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x80</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>6,416</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4031,32 +4031,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4066,35 +4066,35 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>3362,94</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4109,32 +4109,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4144,21 +4144,21 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4167,12 +4167,12 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4187,32 +4187,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4222,21 +4222,21 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4245,12 +4245,12 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>173,4</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4265,52 +4265,52 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,192</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,192</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4343,32 +4343,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4378,21 +4378,21 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>0,263</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>32,96</t>
+          <t>0,263</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4421,32 +4421,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4456,21 +4456,21 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4479,12 +4479,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>87,28</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4499,37 +4499,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>120mm</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4539,12 +4539,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>125mm</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -4635,12 +4635,12 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>25,664</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4655,37 +4655,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-004</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>170mm</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4695,16 +4695,16 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -4713,12 +4713,12 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>272,00</t>
+          <t>15,312</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4733,32 +4733,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4768,17 +4768,17 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -4786,17 +4786,17 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4811,47 +4811,47 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>DESCARGA BB-2601(R)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4860,21 +4860,21 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>33,32</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>199,92</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4889,12 +4889,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>DESCARGA BB-2601(R)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4904,27 +4904,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20x20</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4947,12 +4947,12 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4967,56 +4967,56 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>DESCARGA BB-2601(R)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5025,12 +5025,12 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>65,46</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -5045,37 +5045,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>DESCARGA BB-2601(R)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5085,16 +5085,16 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5103,12 +5103,12 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -5123,37 +5123,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>DESCARGA BB-2601(R)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5163,16 +5163,16 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5181,12 +5181,12 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>19,248</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5201,32 +5201,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CS1SC2-6"-SCI-7-7-006</t>
+          <t>DESCARGA BB-2601(R)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -5236,21 +5236,21 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5259,12 +5259,12 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>204,00</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5279,32 +5279,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2601(R)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5319,30 +5319,30 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>33,32</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>433,16</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5357,27 +5357,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2601(R)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5392,17 +5392,17 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -5415,12 +5415,12 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5435,52 +5435,52 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2601(R)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>20 x 40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5513,47 +5513,47 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2601(R)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 30</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,875</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>150mm</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>20 x 30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -5571,12 +5571,12 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>0,656</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>7,872</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5591,47 +5591,47 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2601(R)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>170mm</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -5649,12 +5649,12 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>15,312</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5669,32 +5669,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2602(R)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5704,35 +5704,35 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>33,32</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>199,92</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5747,52 +5747,52 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2602(R)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20x20</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -5805,12 +5805,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5825,27 +5825,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2602(R)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5855,26 +5855,26 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -5883,12 +5883,12 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>69,2</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5903,37 +5903,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2602(R)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5943,16 +5943,16 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -5961,12 +5961,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5981,37 +5981,37 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2602(R)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6021,12 +6021,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -6039,12 +6039,12 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -6059,27 +6059,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2602(R)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6094,21 +6094,21 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6117,12 +6117,12 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -6137,32 +6137,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2602(R)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6172,17 +6172,17 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -6195,12 +6195,12 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>104,00</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>104,00</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6215,37 +6215,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2602(R)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6255,16 +6255,16 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6273,12 +6273,12 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6293,37 +6293,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2602(R)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6333,16 +6333,16 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6351,12 +6351,12 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>3,208</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6371,73 +6371,2491 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CS1SC2-8"-SCI-7-7-001</t>
+          <t>DESCARGA BB-2602(R)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0,875</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>150mm</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>12</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>0,656</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>7,872</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DESCARGA BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>170mm</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>16</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>0,957</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>15,312</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DRENAJE DESCARGA BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>4</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>12,96</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DRENAJE DESCARGA BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>4</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>0,324</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>1,296</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DRENAJE DESCARGA BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DRENAJE DESCARGA BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>4</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>12,96</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>DRENAJE DESCARGA BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>4</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>0,324</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>1,296</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DRENAJE DESCARGA BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>CS2SA1</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>3</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>51,01</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>153,03</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>6</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>65,19</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>391,14</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>CRE</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 30</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>30x30</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>13,2</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>13,2</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>23,57</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>23,57</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>0,598</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>0,598</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>BL</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>BOLT</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>120mm</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>24</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>9,84</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0,875</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>125mm</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>16</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>0,592</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>9,472</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>60,59</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>60,59</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>1,034</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>1,034</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2601(R)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>1,125</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>185mm</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>16</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>1,331</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>21,296</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>3</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>51,01</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>153,03</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>6</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>65,19</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>391,14</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>CRE</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 30</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>30x30</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>13,2</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>13,2</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>23,57</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>23,57</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>0,598</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>0,598</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0,875</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>125mm</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>16</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>0,592</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>9,472</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>60,59</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>60,59</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>1,034</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>1,034</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SUCCIÓN BB-2602(R)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1,125</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>185mm</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>16</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>1,331</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>21,296</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TIE-IN-003</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>41,76</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>83,52</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TIE-IN-003</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>42,35</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>42,35</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TIE-IN-003</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>0,789</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>0,789</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TIE-IN-003</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>170mm</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>16</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>0,957</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>15,312</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/mto.xlsx
+++ b/output/mto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS2SA1-1"-TPR-1-5-018</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -531,22 +531,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -566,25 +566,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>19,44</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS2SA1-1"-TPR-1-5-018</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -609,17 +609,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -639,16 +639,16 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -657,17 +657,17 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS2SA1-10"-PRO-1-6-015</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -687,22 +687,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -717,12 +717,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -735,12 +735,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>266,00</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>266,00</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS2SA1-10"-PRO-1-6-016</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -765,46 +765,46 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -813,12 +813,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>266,00</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>266,00</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS2SA1-2"-DRE-1-1-025</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -843,46 +843,46 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GLB</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>0,648</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS2SA1-2"-DRE-1-6-021</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -921,27 +921,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -951,16 +951,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -969,12 +969,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>30,00</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS2SA1-24"-PRO-1-6-011</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,22 +999,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1580,00</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1580,00</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS2SA1-24"-PRO-1-6-012</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1466,00</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1466,00</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CS2SA1-24"-PRO-1-6-013</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1155,22 +1155,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS2SA1-24"-PRO-1-6-013</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1233,17 +1233,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1281,17 +1281,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,035</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,035</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CS2SA1-24"-PRO-1-6-013</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1311,22 +1311,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CS2SA1-24"-PRO-1-6-013</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1389,27 +1389,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>70mm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1419,16 +1419,16 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1437,17 +1437,17 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1466,00</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1466,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CS2SA1-24"-PRO-1-6-014</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1467,27 +1467,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>75mm</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1497,16 +1497,16 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1515,12 +1515,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,516</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CS2SA1-24"-PRO-1-6-014</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1593,17 +1593,17 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>77,00</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>77,00</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CS2SA1-4"-PRO-1-6-017</t>
+          <t>CS2SA1-1"-ALV-1-5-003</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1628,17 +1628,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-DRE-1-1-023</t>
+          <t>CS2SA1-1"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1701,22 +1701,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GLB</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1726,35 +1726,35 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>128,00</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>128,00</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CS2SA1-6"-DRE-1-1-024</t>
+          <t>CS2SA1-1"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1779,22 +1779,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GLB</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>128,00</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>128,00</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CS2SA1-8"-PRO-1-1-019</t>
+          <t>CS2SA1-1"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1857,22 +1857,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1905,12 +1905,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CS2SA1-8"-PRO-1-1-019</t>
+          <t>CS2SA1-1"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1935,22 +1935,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1965,16 +1965,16 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1983,17 +1983,17 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,094</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CS2SA1-8"-PRO-1-1-019</t>
+          <t>CS2SA1-1"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2013,27 +2013,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>75mm</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2043,16 +2043,16 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2061,17 +2061,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,516</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CS2SA1-8"-PRO-1-1-019</t>
+          <t>CS2SA1-1"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2091,22 +2091,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>FIGURE-8 BLANK, CS, ASTM A516 Gr.70, ASME B16.48, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2139,12 +2139,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>133,00</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>133,00</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CS2SA1-8"-PRO-1-9-020</t>
+          <t>CS2SA1-1"-SUM-1-5-004</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2217,12 +2217,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CS2SA1-8"-PRO-1-9-020</t>
+          <t>CS2SA1-1"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2247,22 +2247,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2272,17 +2272,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -2290,17 +2290,17 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>30,00</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CS2SA1-8"-PRO-1-9-020</t>
+          <t>CS2SA1-1"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2325,22 +2325,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2355,16 +2355,16 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2373,12 +2373,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>133,00</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>133,00</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CS2SA1-8"-PRO-1-9-020</t>
+          <t>CS2SA1-1"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2403,22 +2403,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2433,16 +2433,16 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2451,12 +2451,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>144,00</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>144,00</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CS2SA1-8"-PRO-1-9-020</t>
+          <t>CS2SA1-1"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2481,22 +2481,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2529,17 +2529,17 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>144,00</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>144,00</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CS2SA1-8"-PRO-1-9-022</t>
+          <t>CS2SA1-1"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2559,22 +2559,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2589,16 +2589,16 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2607,12 +2607,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PIT 0707</t>
+          <t>CS2SA1-1"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>0,141</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VALVULAS TANQUE</t>
+          <t>CS2SA1-1"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2715,27 +2715,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>75mm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2745,16 +2745,16 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2763,12 +2763,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>1,032</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VALVULAS TANQUE</t>
+          <t>CS2SA1-1"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2793,22 +2793,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>FIGURE-8 BLANK, CS, ASTM A516 Gr.70, ASME B16.48, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2841,12 +2841,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VALVULAS TANQUE</t>
+          <t>CS2SA1-1"-SUM-1-5-005</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2881,12 +2881,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2901,33 +2901,5025 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CS2SA1-1/2"-SUM-1-5-008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CS2SA1-1/2"-SUM-1-5-008</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>3</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CS2SA1-1/2"-SUM-1-5-008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>CPL</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CS2SA1-1/2"-SUM-1-5-009</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CS2SA1-1/2"-SUM-1-5-009</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CS2SA1-1/2"-SUM-1-5-009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>CPL</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CS2SA1-1/2"-SUM-1-5-009</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>RF</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="L32" t="n">
+      <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>77,00</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>77,00</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CS2SA1-1/2"-SUM-1-5-009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0,025</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0,025</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CS2SA1-1/2"-SUM-1-5-009</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>70mm</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>4</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0,125</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CS2SA1-1/2"-SUM-1-5-009</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CS2SA1-1/2"-SUM-1-5-009</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CS2SA1-2"-SUM-1-5-007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CS2SA1-2"-SUM-1-5-007</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CS2SA1-2"-SUM-1-5-007</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RTE</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CS2SA1-2"-SUM-1-5-007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SWC</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>80x80</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PExPE</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CS2SA1-2"-SUM-1-5-007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SWC</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, BExPE, SCH 40x80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>40x80</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>BExPE</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CS2SA1-2"-SUM-1-5-007</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CS2SA1-2"-TIE-IN-003</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>CAP</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>4</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>11,29</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>45,16</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>8,12</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>CPL</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>CRE</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>40x40</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>6</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>0,324</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0,324</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>BLD</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>5</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>4</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>19,88</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>4</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>0,097</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>0,097</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>4</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>0,148</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>0,592</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>70mm</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>16</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>0,125</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>16</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>0,235</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>90mm</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>4</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>0,888</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>CHS</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>29,00</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>29,00</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CS2SA1-3"-SUM-1-5-002</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CS2SA1-3/4"-SUM-1-5-006</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CS2SA1-3/4"-SUM-1-5-006</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CS2SA1-3/4"-SUM-1-5-006</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CS2SA1-3/4"-SUM-1-5-006</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CS2SA1-3/4"-SUM-1-5-006</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>70mm</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>4</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>0,125</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>16,08</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>48,24</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>7,8</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>CRE</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>40x40</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>4</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>4</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>4</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>5</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>35,55</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>4</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>0,148</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>0,148</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>5</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>0,235</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>1,175</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>70mm</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>16</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>0,125</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>44</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>0,235</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>10,34</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>YST</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CS2SA1-4"-SUM-1-5-001</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>4</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/mto.xlsx
+++ b/output/mto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P150"/>
+  <dimension ref="A1:P146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +541,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>PIPE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -697,17 +697,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -735,12 +735,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0,324</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0,972</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -770,12 +770,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -785,26 +785,26 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -813,12 +813,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,972</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -921,46 +921,46 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>SW</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -969,12 +969,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1077,27 +1077,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1107,16 +1107,16 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1170,12 +1170,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1203,17 +1203,17 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1233,22 +1233,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1281,17 +1281,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>0,035</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>0,035</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1389,27 +1389,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>70mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1419,16 +1419,16 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>75mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1515,12 +1515,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0,129</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0,516</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>PIPE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>70mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>PIPE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>90mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3032,32 +3032,32 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3075,12 +3075,12 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>42,12</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3105,17 +3105,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3125,40 +3125,40 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>42,12</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3188,12 +3188,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3231,12 +3231,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3256,47 +3256,47 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>PIPE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -3304,17 +3304,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3417,60 +3417,60 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>1,296</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3500,22 +3500,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3543,12 +3543,12 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3573,17 +3573,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3593,26 +3593,26 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3621,12 +3621,12 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0,324</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1,296</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3651,27 +3651,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3681,16 +3681,16 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3699,12 +3699,12 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3729,17 +3729,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3777,12 +3777,12 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,057</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>0,057</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3807,27 +3807,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3837,16 +3837,16 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3855,12 +3855,12 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>0,888</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CS2SA1-1"-DRE-1-4-017</t>
+          <t>CS3SA1-10"-PRO-1-4-001</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3885,60 +3885,60 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>PIPE, SMLS, CS, API 5L GR B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0,057</t>
+          <t>41,76</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0,057</t>
+          <t>167,04</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CS2SA1-1"-DRE-1-4-017</t>
+          <t>CS3SA1-10"-PRO-1-4-001</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3963,37 +3963,37 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>ELBOW 45 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>90mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0,888</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4041,37 +4041,37 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4080,21 +4080,21 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>41,76</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>167,04</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4124,12 +4124,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4139,26 +4139,26 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4167,12 +4167,12 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4202,32 +4202,32 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>34,7</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>69,4</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4275,27 +4275,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4353,17 +4353,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4383,16 +4383,16 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>34,7</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>69,4</t>
+          <t>254,1</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4461,12 +4461,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -4479,12 +4479,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4509,32 +4509,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4557,12 +4557,12 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>42,35</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>254,1</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4587,27 +4587,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4617,16 +4617,16 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -4635,12 +4635,12 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,367</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4665,27 +4665,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4695,16 +4695,16 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -4713,12 +4713,12 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>0,216</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>0,864</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4743,27 +4743,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4773,16 +4773,16 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -4791,12 +4791,12 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0,789</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2,367</t>
+          <t>45,936</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CS3SA1-10"-PRO-1-4-001</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4821,37 +4821,37 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>PIPE, SMLS, CS, API 5L GR B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>85mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4860,21 +4860,21 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>0,216</t>
+          <t>41,76</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0,864</t>
+          <t>835,2</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CS3SA1-10"-PRO-1-4-001</t>
+          <t>CS3SA1-10"-PRO-1-4-008</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4899,37 +4899,37 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>PIPE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>170mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4938,21 +4938,21 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>0,957</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>45,936</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4977,17 +4977,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
+          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5016,21 +5016,21 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>41,76</t>
+          <t>25,79</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>835,2</t>
+          <t>206,32</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -5055,60 +5055,60 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -5138,12 +5138,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5153,26 +5153,26 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5181,12 +5181,12 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>25,79</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>206,32</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5216,32 +5216,32 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5259,12 +5259,12 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>34,7</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>69,4</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5289,27 +5289,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5319,12 +5319,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -5337,12 +5337,12 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5367,17 +5367,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5397,12 +5397,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -5415,12 +5415,12 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>34,7</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>69,4</t>
+          <t>84,7</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5445,17 +5445,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5475,12 +5475,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5523,32 +5523,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -5571,12 +5571,12 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>42,35</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>84,7</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5601,27 +5601,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5631,12 +5631,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -5649,12 +5649,12 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5679,27 +5679,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5709,16 +5709,16 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -5727,12 +5727,12 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>0,216</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>0,864</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5757,27 +5757,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5787,16 +5787,16 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -5805,12 +5805,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>0,789</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0,789</t>
+          <t>15,312</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CS3SA1-10"-PRO-1-4-008</t>
+          <t>CS3SA1-10"-PRO-1-4-009</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -5835,37 +5835,37 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>PIPE, SMLS, CS, API 5L GR B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>85mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5874,21 +5874,21 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>0,216</t>
+          <t>41,76</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0,864</t>
+          <t>83,52</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CS3SA1-10"-PRO-1-4-008</t>
+          <t>CS3SA1-10"-PRO-1-4-009</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5913,37 +5913,37 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>170mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -5961,12 +5961,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>0,957</t>
+          <t>25,79</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>15,312</t>
+          <t>51,58</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5991,17 +5991,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6011,7 +6011,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6021,30 +6021,30 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>41,76</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>83,52</t>
+          <t>169,4</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -6069,17 +6069,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 300, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6089,26 +6089,26 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6117,12 +6117,12 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>25,79</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>51,58</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -6147,17 +6147,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6167,12 +6167,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6186,7 +6186,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6195,12 +6195,12 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>42,35</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>169,4</t>
+          <t>2,367</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6225,27 +6225,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 300, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6255,16 +6255,16 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6273,12 +6273,12 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>45,936</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CS3SA1-10"-PRO-1-4-009</t>
+          <t>CS3SA1-12"-PRO-1-4-002</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6303,60 +6303,60 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>PIPE, SMLS, CS, API 5L GR B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>0,789</t>
+          <t>49,71</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2,367</t>
+          <t>49,71</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CS3SA1-10"-PRO-1-4-009</t>
+          <t>CS3SA1-12"-PRO-1-4-002</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6381,37 +6381,37 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>PIPE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>170mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6420,21 +6420,21 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>0,957</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>45,936</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CS3SA1-10"-TIE-IN-003</t>
+          <t>CS3SA1-12"-PRO-1-4-002</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -6459,42 +6459,42 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x20</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -6507,12 +6507,12 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>57,00</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>57,00</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CS3SA1-10"-TIE-IN-003</t>
+          <t>CS3SA1-12"-PRO-1-4-002</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -6537,42 +6537,42 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -6585,12 +6585,12 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>42,35</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>42,35</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CS3SA1-10"-TIE-IN-003</t>
+          <t>CS3SA1-12"-PRO-1-4-002</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6615,27 +6615,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6663,12 +6663,12 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>0,789</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0,789</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CS3SA1-10"-TIE-IN-003</t>
+          <t>CS3SA1-12"-PRO-1-4-002</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -6693,46 +6693,46 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>170mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -6741,12 +6741,12 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>0,957</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>15,312</t>
+          <t>84,7</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6771,17 +6771,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -6814,17 +6814,17 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>49,71</t>
+          <t>60,59</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>49,71</t>
+          <t>60,59</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6849,42 +6849,42 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>BALL VALVE FL, RB, LP, TRUNNION BALL, API 608, A216 GR WCB, CL 300, RF, B16.5, A105N + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS A105N + ENP, API 607, GO</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -6892,17 +6892,17 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>295,00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>295,00</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6927,42 +6927,42 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
+          <t>FIGURE-8 BLANK, CS, ASTM A516 GR 70 + S5, ASME B16.48, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>20x20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -6975,12 +6975,12 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>29,22</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>29,22</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -7005,27 +7005,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7035,16 +7035,16 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7053,12 +7053,12 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,367</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -7083,27 +7083,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7131,12 +7131,12 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,034</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,034</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -7161,46 +7161,46 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -7209,12 +7209,12 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>42,35</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>84,7</t>
+          <t>30,624</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -7239,46 +7239,46 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>1,125</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -7287,12 +7287,12 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>60,59</t>
+          <t>1,331</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>60,59</t>
+          <t>21,296</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -7307,52 +7307,52 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CS3SA1-12"-PRO-1-4-002</t>
+          <t>CS3SA1-12"-PRO-1-4-005</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CS3SA1</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DBB</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 300, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30 x 30</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30x30</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -7365,12 +7365,12 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CS3SA1-12"-PRO-1-4-002</t>
+          <t>CS3SA1-12"-PRO-1-4-005</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -7395,60 +7395,60 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>PIPE, SMLS, CS, API 5L GR B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>0,789</t>
+          <t>49,71</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2,367</t>
+          <t>49,71</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CS3SA1-12"-PRO-1-4-002</t>
+          <t>CS3SA1-12"-PRO-1-4-005</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -7473,42 +7473,42 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>PIPE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -7516,17 +7516,17 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>1,034</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>1,034</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CS3SA1-12"-PRO-1-4-002</t>
+          <t>CS3SA1-12"-PRO-1-4-005</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -7551,27 +7551,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>170mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7581,16 +7581,16 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -7599,12 +7599,12 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>0,957</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>30,624</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CS3SA1-12"-PRO-1-4-002</t>
+          <t>CS3SA1-12"-PRO-1-4-005</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -7629,27 +7629,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1,125</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>185mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7659,16 +7659,16 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -7677,12 +7677,12 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>1,331</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>21,296</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -7702,51 +7702,51 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 30</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>30x30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -7755,12 +7755,12 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>84,7</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -7785,17 +7785,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7805,7 +7805,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7815,12 +7815,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -7828,17 +7828,17 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>49,71</t>
+          <t>60,59</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>49,71</t>
+          <t>60,59</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -7863,42 +7863,42 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>BALL VALVE FL, RB, LP, TRUNNION BALL, API 608, A216 GR WCB, CL 300, RF, B16.5, A105N + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS A105N + ENP, API 607, GO</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -7906,17 +7906,17 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>295,00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>295,00</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -7941,27 +7941,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>FIGURE-8 BLANK, CS, ASTM A516 GR 70 + S5, ASME B16.48, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7971,12 +7971,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -7989,12 +7989,12 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>29,22</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>29,22</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -8019,27 +8019,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -8058,7 +8058,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -8067,12 +8067,12 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2,367</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -8097,32 +8097,32 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8136,7 +8136,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -8145,12 +8145,12 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>42,35</t>
+          <t>1,034</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>84,7</t>
+          <t>1,034</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -8175,46 +8175,46 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -8223,12 +8223,12 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>60,59</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>60,59</t>
+          <t>30,624</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -8253,27 +8253,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DBB</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 300, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,125</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -8283,16 +8283,16 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -8301,12 +8301,12 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>1,331</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>21,296</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CS3SA1-12"-PRO-1-4-005</t>
+          <t>CS3SA1-3/4"-PRO-1-4-011</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -8331,46 +8331,46 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -8379,12 +8379,12 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>0,789</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2,367</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CS3SA1-12"-PRO-1-4-005</t>
+          <t>CS3SA1-3/4"-PRO-1-4-011</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -8409,27 +8409,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -8439,12 +8439,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -8457,12 +8457,12 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>1,034</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>1,034</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CS3SA1-12"-PRO-1-4-005</t>
+          <t>CS3SA1-3/4"-PRO-1-4-011</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -8487,27 +8487,27 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>170mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -8517,16 +8517,16 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -8535,12 +8535,12 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>0,957</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>30,624</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CS3SA1-12"-PRO-1-4-005</t>
+          <t>CS3SA1-3/4"-PRO-1-4-011</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -8565,27 +8565,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1,125</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>185mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -8595,16 +8595,16 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -8613,12 +8613,12 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>1,331</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>21,296</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -8643,17 +8643,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -8663,12 +8663,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -8678,11 +8678,11 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -8691,12 +8691,12 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -8721,27 +8721,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8751,12 +8751,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -8769,17 +8769,17 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -8799,17 +8799,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8829,12 +8829,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -8847,12 +8847,12 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -8877,27 +8877,27 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8907,16 +8907,16 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -8925,12 +8925,12 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,216</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>1,728</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CS3SA1-3/4"-PRO-1-4-011</t>
+          <t>CS3SA1-3/4"-PRO-1-4-013</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -8955,17 +8955,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -8975,12 +8975,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8990,11 +8990,11 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -9003,12 +9003,12 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CS3SA1-3/4"-PRO-1-4-011</t>
+          <t>CS3SA1-3/4"-PRO-1-4-013</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -9033,27 +9033,27 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -9081,17 +9081,17 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CS3SA1-3/4"-PRO-1-4-011</t>
+          <t>CS3SA1-3/4"-PRO-1-4-013</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -9111,17 +9111,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -9141,12 +9141,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -9159,12 +9159,12 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CS3SA1-3/4"-PRO-1-4-011</t>
+          <t>CS3SA1-3/4"-PRO-1-4-013</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -9189,27 +9189,27 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>85mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -9219,16 +9219,16 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -9237,12 +9237,12 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>0,216</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>1,728</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -9267,17 +9267,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -9287,12 +9287,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -9302,11 +9302,11 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -9315,12 +9315,12 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
@@ -9345,27 +9345,27 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -9375,12 +9375,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>800</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -9393,17 +9393,17 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -9423,17 +9423,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -9453,16 +9453,16 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -9471,12 +9471,12 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,098</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -9501,27 +9501,27 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -9531,16 +9531,16 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -9549,12 +9549,12 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>0,516</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CS3SA1-3/4"-PRO-1-4-013</t>
+          <t>CS3SA1-8"-PRO-1-4-003</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -9579,42 +9579,42 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>PIPE, SMLS, CS, API 5L GR B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -9622,17 +9622,17 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>41,76</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>41,76</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CS3SA1-3/4"-PRO-1-4-013</t>
+          <t>CS3SA1-8"-PRO-1-4-003</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -9657,42 +9657,42 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x20</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -9705,17 +9705,17 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CS3SA1-3/4"-PRO-1-4-013</t>
+          <t>CS3SA1-8"-PRO-1-4-003</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -9735,17 +9735,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -9755,26 +9755,26 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -9783,12 +9783,12 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>0,098</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CS3SA1-3/4"-PRO-1-4-013</t>
+          <t>CS3SA1-8"-PRO-1-4-003</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -9813,37 +9813,37 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>85mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
@@ -9861,12 +9861,12 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>0,216</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2,592</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -9891,17 +9891,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -9911,22 +9911,22 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -9934,17 +9934,17 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>41,76</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>41,76</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -9974,12 +9974,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -9989,22 +9989,22 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>20x20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -10017,12 +10017,12 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -10047,17 +10047,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -10067,22 +10067,22 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -10095,12 +10095,12 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -10125,17 +10125,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -10145,22 +10145,22 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -10173,12 +10173,12 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>0,324</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>0,324</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -10203,42 +10203,42 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -10251,12 +10251,12 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -10281,17 +10281,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -10301,26 +10301,26 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -10329,12 +10329,12 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>84,7</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -10359,27 +10359,27 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>BALL VALVE FL, RB, LP, TRUNNION BALL, API 608, A216 GR WCB, CL 300, RF, B16.5, A105N + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS A105N + ENP, API 607, GO</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -10407,12 +10407,12 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>295,00</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>295,00</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -10437,27 +10437,27 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -10485,12 +10485,12 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>384,00</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>384,00</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -10515,17 +10515,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -10535,12 +10535,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>29,59</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>29,59</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
@@ -10593,17 +10593,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -10613,12 +10613,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -10641,12 +10641,12 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>42,35</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>84,7</t>
+          <t>2,367</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -10671,27 +10671,27 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,875</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -10701,16 +10701,16 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
@@ -10719,12 +10719,12 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>384,00</t>
+          <t>0,656</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>384,00</t>
+          <t>7,872</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -10749,27 +10749,27 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>DBB</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 300, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -10779,16 +10779,16 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -10797,12 +10797,12 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>45,936</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CS3SA1-8"-PRO-1-4-003</t>
+          <t>CS3SA1-8"-PRO-1-4-006</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -10827,42 +10827,42 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>PIPE, SMLS, CS, API 5L GR B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -10870,17 +10870,17 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>41,76</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>41,76</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -10895,7 +10895,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CS3SA1-8"-PRO-1-4-003</t>
+          <t>CS3SA1-8"-PRO-1-4-006</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -10905,17 +10905,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -10925,26 +10925,26 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x20</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -10953,12 +10953,12 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>0,789</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2,367</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CS3SA1-8"-PRO-1-4-003</t>
+          <t>CS3SA1-8"-PRO-1-4-006</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -10983,37 +10983,37 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>150mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -11022,7 +11022,7 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -11031,12 +11031,12 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>0,656</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>7,872</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CS3SA1-8"-PRO-1-4-003</t>
+          <t>CS3SA1-8"-PRO-1-4-006</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -11061,27 +11061,27 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>170mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -11091,16 +11091,16 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -11109,12 +11109,12 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>0,957</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>45,936</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -11139,42 +11139,42 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -11182,17 +11182,17 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>41,76</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>41,76</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -11217,42 +11217,42 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>20x20</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -11265,12 +11265,12 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -11295,46 +11295,46 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -11343,12 +11343,12 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>0,324</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>0,324</t>
+          <t>84,7</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -11373,17 +11373,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>BALL VALVE FL, RB, LP, TRUNNION BALL, API 608, A216 GR WCB, CL 300, RF, B16.5, A105N + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS A105N + ENP, API 607, GO</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -11403,12 +11403,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>300</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -11421,12 +11421,12 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>295,00</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>295,00</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -11451,27 +11451,27 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -11499,12 +11499,12 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>384,00</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>384,00</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -11529,17 +11529,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -11549,12 +11549,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -11577,12 +11577,12 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>29,59</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>29,59</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -11607,17 +11607,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -11627,12 +11627,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
@@ -11655,12 +11655,12 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>42,35</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>84,7</t>
+          <t>2,367</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -11685,27 +11685,27 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -11715,16 +11715,16 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -11733,12 +11733,12 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>384,00</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>384,00</t>
+          <t>2,664</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -11763,27 +11763,27 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>DBB</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 300, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -11793,16 +11793,16 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
@@ -11811,327 +11811,15 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>45,936</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>146</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>CS3SA1-8"-PRO-1-4-006</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>CS3SA1</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>147</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>CS3SA1-8"-PRO-1-4-006</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>CS3SA1</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>3</v>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>0,789</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>2,367</t>
-        </is>
-      </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>148</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>CS3SA1-8"-PRO-1-4-006</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>CS3SA1</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>0,875</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>150mm</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>12</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>0,656</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>7,872</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>149</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>CS3SA1-8"-PRO-1-4-006</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>CS3SA1</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>170mm</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>48</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>0,957</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>45,936</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
         <is>
           <t>-</t>
         </is>
